--- a/biology/Botanique/Prosthechea/Prosthechea.xlsx
+++ b/biology/Botanique/Prosthechea/Prosthechea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Prostechea est un genre de la famille des Orchidaceae qui regroupe une partie des orchidées répertoriées avant 1997 dans le genre Encyclia elles-mêmes regroupées avant 1961 dans le genre Epidendrum.
 Ce sont les travaux réalisés sur l'ADN des orchidées par  W.E.Higgins qui ont permis de différencier ce genre. Il est donc assez fréquent de trouver ces orchidées dans le commerce sous la dénomination Encyclia d'autant plus que ce genre est sujet à controverse entre de nombreux botanistes mais l'usage de ce nom est malgré tout reconnu  par l'emblématique institution des jardins botaniques royaux de Kew et par le NCBI. On assiste depuis 1996 à des changements incessants dans la dénomination de certaines de ces orchidées... Anacheilium, Encyclia, Prosthechea, le plus simple étant de se référer au basionyme de chaque taxon.  
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre se caractérise par la présence de pseudobulbes allongés et aplatis comme des fuseaux terminés par un feuillage étroit comprenant deux, voire trois, feuilles. Les pseudobulbes sont séparés par un rhizome allant de 1 à 8 cm de longueur. Différence notable avec les Encyclias, le labelle n'est pas trilobé et n'entoure pas la colonne avec ses lobes latéraux. les racines n'excèdent pas 1 millimètre de diamètre.
 </t>
@@ -544,7 +558,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale, sud des États-Unis, Mexique
 </t>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Prostechea sont, comme beaucoup d'orchidées, des plantes épiphytes qui ne supporteront pas d'être placées dans un terreau classique et qui ne tolèreront pas une exposition directe au soleil. néanmoins, elles exigent une luminosité importante afin de refleurir. elles seront donc cultivées dans un substrat à base d'écorces de pin (très drainant) et de sphaigne pour maintenir une certaine humidité sans jamais d'eau résiduelle en choisissant un emplacement le plus lumineux possible. Il est également possible de les cultiver en hydroponie (substrat constitué de billes d'argile baignant dans l'eau mais en faisant en sorte que les racines ne touchent pas l'eau).
 </t>
@@ -606,7 +624,9 @@
           <t>Espèces botaniques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prosthechea abbreviata (Schltr.) W.E.Higgins (1997 publ. 1998).
@@ -747,7 +767,9 @@
           <t>Hybrides primaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces issues du croisement de deux espèces botaniques d'un même genre.
 Prosyclia 'Green Hornet' = Prosthechea cochleata × Encyclia lancifolia(H&amp;R nurseries)
@@ -779,7 +801,9 @@
           <t>Hybrides intergénériques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Catteychea (Ctyh.) [ Cattleya × Prosthechea ]
 Epithechea (Etc.) [ Epidendrum × Prosthechea ]
@@ -818,10 +842,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Chiron, G. R., « Contribution a l'etude de Prosthechea section Parviloba (Orchidaceae) », Richardiana, vol. 5, no 3,‎ 2005, p. 129–153  (en français)
-(en) Higgins, W. E., « A reconsideration of the genus Prosthechea (Orchidaceae) », Phytologia, vol. 82,‎ 1997[1998], p. 370–383
+(en) Higgins, W. E., « A reconsideration of the genus Prosthechea (Orchidaceae) », Phytologia, vol. 82,‎ 1997, p. 370–383
 (en) Higgins, W. E., van den Berg, C., Whitten, W. M., « A Combined Molecular Phylogeny of Encyclia (Orchidaceae) and Relationships within Laeliinae », Selbyana, vol. 23,‎ 2003, p. 165–179
 (en) Référence World Checklist of Selected Plant Families (WCSP) : Prosthechea  
 (en) Référence NCBI : Prosthechea (taxons inclus)</t>
